--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel.bh.zhang/Documents/Repo2/lottery/server/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DE047-1BB0-5848-9E1C-D8CE4C7314C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22500" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="275">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1095,24 +1101,36 @@
   <si>
     <t>MUSIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>公司 AAA</t>
+  </si>
+  <si>
+    <t>公司 BBB</t>
+  </si>
+  <si>
+    <t>公司 CCC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1189,13 +1207,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1203,78 +1221,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1575,26 +1525,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="26.75" style="1"/>
+    <col min="1" max="16384" width="26.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,8 +1554,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1615,8 +1568,11 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1626,8 +1582,11 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1637,8 +1596,11 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1648,8 +1610,11 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1659,8 +1624,11 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1670,8 +1638,11 @@
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1681,8 +1652,11 @@
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1692,8 +1666,11 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1703,8 +1680,11 @@
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +1694,11 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1725,8 +1708,11 @@
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1722,11 @@
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1747,8 +1736,11 @@
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1758,8 +1750,11 @@
       <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1769,8 +1764,11 @@
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1780,8 +1778,11 @@
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1791,8 +1792,11 @@
       <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1802,8 +1806,11 @@
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1813,8 +1820,11 @@
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1824,8 +1834,11 @@
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1835,8 +1848,11 @@
       <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1846,8 +1862,11 @@
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1857,8 +1876,11 @@
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1868,8 +1890,11 @@
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1879,8 +1904,11 @@
       <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1890,8 +1918,11 @@
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1901,8 +1932,11 @@
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1912,8 +1946,11 @@
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1923,8 +1960,11 @@
       <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1934,8 +1974,11 @@
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1945,8 +1988,11 @@
       <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1956,8 +2002,11 @@
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1967,8 +2016,11 @@
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1978,8 +2030,11 @@
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1989,8 +2044,11 @@
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2011,8 +2072,11 @@
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2022,8 +2086,11 @@
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2033,8 +2100,11 @@
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2044,8 +2114,11 @@
       <c r="C41" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2055,8 +2128,11 @@
       <c r="C42" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2066,8 +2142,11 @@
       <c r="C43" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2077,8 +2156,11 @@
       <c r="C44" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2088,8 +2170,11 @@
       <c r="C45" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -2099,8 +2184,11 @@
       <c r="C46" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -2110,8 +2198,11 @@
       <c r="C47" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2121,8 +2212,11 @@
       <c r="C48" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2132,8 +2226,11 @@
       <c r="C49" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2143,8 +2240,11 @@
       <c r="C50" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -2154,8 +2254,11 @@
       <c r="C51" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -2165,8 +2268,11 @@
       <c r="C52" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2176,8 +2282,11 @@
       <c r="C53" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -2187,8 +2296,11 @@
       <c r="C54" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -2198,8 +2310,11 @@
       <c r="C55" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -2209,8 +2324,11 @@
       <c r="C56" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2220,8 +2338,11 @@
       <c r="C57" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -2231,8 +2352,11 @@
       <c r="C58" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2242,8 +2366,11 @@
       <c r="C59" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2253,8 +2380,11 @@
       <c r="C60" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -2264,8 +2394,11 @@
       <c r="C61" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2275,8 +2408,11 @@
       <c r="C62" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2286,8 +2422,11 @@
       <c r="C63" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2297,8 +2436,11 @@
       <c r="C64" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -2308,8 +2450,11 @@
       <c r="C65" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -2319,8 +2464,11 @@
       <c r="C66" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -2330,8 +2478,11 @@
       <c r="C67" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2341,8 +2492,11 @@
       <c r="C68" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2352,8 +2506,11 @@
       <c r="C69" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2363,8 +2520,11 @@
       <c r="C70" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -2374,8 +2534,11 @@
       <c r="C71" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -2385,8 +2548,11 @@
       <c r="C72" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -2396,8 +2562,11 @@
       <c r="C73" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -2407,8 +2576,11 @@
       <c r="C74" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2418,8 +2590,11 @@
       <c r="C75" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="19">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2429,8 +2604,11 @@
       <c r="C76" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -2440,8 +2618,11 @@
       <c r="C77" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2451,8 +2632,11 @@
       <c r="C78" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -2462,8 +2646,11 @@
       <c r="C79" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -2473,8 +2660,11 @@
       <c r="C80" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -2484,8 +2674,11 @@
       <c r="C81" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -2495,8 +2688,11 @@
       <c r="C82" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -2506,8 +2702,11 @@
       <c r="C83" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="19">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -2517,8 +2716,11 @@
       <c r="C84" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="19">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -2528,8 +2730,11 @@
       <c r="C85" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -2539,8 +2744,11 @@
       <c r="C86" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -2550,8 +2758,11 @@
       <c r="C87" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="19">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2561,8 +2772,11 @@
       <c r="C88" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -2572,8 +2786,11 @@
       <c r="C89" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -2583,8 +2800,11 @@
       <c r="C90" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="19">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -2594,8 +2814,11 @@
       <c r="C91" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="19">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -2605,8 +2828,11 @@
       <c r="C92" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="19">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -2616,8 +2842,11 @@
       <c r="C93" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="19">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -2627,8 +2856,11 @@
       <c r="C94" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="19">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -2638,8 +2870,11 @@
       <c r="C95" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -2649,8 +2884,11 @@
       <c r="C96" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="19">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -2660,8 +2898,11 @@
       <c r="C97" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="19">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
@@ -2671,8 +2912,11 @@
       <c r="C98" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -2682,8 +2926,11 @@
       <c r="C99" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="19">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
@@ -2693,8 +2940,11 @@
       <c r="C100" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="19">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
@@ -2704,8 +2954,11 @@
       <c r="C101" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="19">
       <c r="A102" s="2" t="s">
         <v>107</v>
       </c>
@@ -2715,8 +2968,11 @@
       <c r="C102" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="19">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -2726,8 +2982,11 @@
       <c r="C103" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="19">
       <c r="A104" s="2" t="s">
         <v>109</v>
       </c>
@@ -2737,8 +2996,11 @@
       <c r="C104" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -2748,8 +3010,11 @@
       <c r="C105" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="19">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
@@ -2759,8 +3024,11 @@
       <c r="C106" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="19">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -2770,8 +3038,11 @@
       <c r="C107" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="19">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
@@ -2781,8 +3052,11 @@
       <c r="C108" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="19">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -2792,8 +3066,11 @@
       <c r="C109" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="19">
       <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
@@ -2803,8 +3080,11 @@
       <c r="C110" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="19">
       <c r="A111" s="2" t="s">
         <v>116</v>
       </c>
@@ -2814,8 +3094,11 @@
       <c r="C111" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="19">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
@@ -2825,8 +3108,11 @@
       <c r="C112" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="19">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
@@ -2836,8 +3122,11 @@
       <c r="C113" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="19">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
@@ -2847,8 +3136,11 @@
       <c r="C114" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="19">
       <c r="A115" s="2" t="s">
         <v>120</v>
       </c>
@@ -2858,8 +3150,11 @@
       <c r="C115" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="19">
       <c r="A116" s="2" t="s">
         <v>121</v>
       </c>
@@ -2869,8 +3164,11 @@
       <c r="C116" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="19">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -2880,8 +3178,11 @@
       <c r="C117" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="19">
       <c r="A118" s="2" t="s">
         <v>123</v>
       </c>
@@ -2891,8 +3192,11 @@
       <c r="C118" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="19">
       <c r="A119" s="2" t="s">
         <v>124</v>
       </c>
@@ -2902,8 +3206,11 @@
       <c r="C119" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="19">
       <c r="A120" s="2" t="s">
         <v>125</v>
       </c>
@@ -2913,8 +3220,11 @@
       <c r="C120" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="19">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
@@ -2924,8 +3234,11 @@
       <c r="C121" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="19">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -2935,8 +3248,11 @@
       <c r="C122" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="19">
       <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
@@ -2946,8 +3262,11 @@
       <c r="C123" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="19">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
@@ -2957,8 +3276,11 @@
       <c r="C124" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="19">
       <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
@@ -2968,8 +3290,11 @@
       <c r="C125" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="19">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -2979,8 +3304,11 @@
       <c r="C126" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="19">
       <c r="A127" s="2" t="s">
         <v>132</v>
       </c>
@@ -2990,8 +3318,11 @@
       <c r="C127" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="19">
       <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
@@ -3001,8 +3332,11 @@
       <c r="C128" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="19">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -3012,8 +3346,11 @@
       <c r="C129" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="19">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -3023,8 +3360,11 @@
       <c r="C130" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="19">
       <c r="A131" s="2" t="s">
         <v>103</v>
       </c>
@@ -3034,8 +3374,11 @@
       <c r="C131" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="19">
       <c r="A132" s="2" t="s">
         <v>104</v>
       </c>
@@ -3045,8 +3388,11 @@
       <c r="C132" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="19">
       <c r="A133" s="2" t="s">
         <v>105</v>
       </c>
@@ -3056,35 +3402,38 @@
       <c r="C133" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" s="3"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" s="3"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" s="3"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" s="3"/>
     </row>
   </sheetData>
